--- a/CaseStudy3_RoadDebris/EWU_Dashboard_InputTemplate_RoadDebris.xlsx
+++ b/CaseStudy3_RoadDebris/EWU_Dashboard_InputTemplate_RoadDebris.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\CaseStudy3_RoadDebris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42737DCE-12FA-4E24-9641-9D9629A044CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20DD68-FB20-4A43-8660-60D28E8D1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <sheet name="Format" sheetId="10" r:id="rId12"/>
     <sheet name="UserGuide_EWU-Dashboard" sheetId="12" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1009,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="451">
   <si>
     <t>input</t>
   </si>
@@ -2758,6 +2755,24 @@
   </si>
   <si>
     <t>Schmidt, S.; Laner, D. (in preparation): Environmental Waste Utilization score to monitor the performance of waste management systems</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Importance and Robustness (Sala et al. 2018)</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Distance-to-Target (Castellani et al. 2016)</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Planetary Boundaries (Bjorn &amp; Hauschild 2015)</t>
+  </si>
+  <si>
+    <t>Impact-based Weighting + Quality and Maturity (ILCD 2011)</t>
+  </si>
+  <si>
+    <t>PAH-RD</t>
   </si>
 </sst>
 </file>
@@ -3273,17 +3288,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -4339,47 +4354,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="UserGuide"/>
-      <sheetName val="Glossary"/>
-      <sheetName val="GeneralInformation"/>
-      <sheetName val="Activities"/>
-      <sheetName val="Exchanges"/>
-      <sheetName val="EnvironmentalValue"/>
-      <sheetName val="ProspectiveScenarios"/>
-      <sheetName val="BackgroundScenarios"/>
-      <sheetName val="LCIA_Methods"/>
-      <sheetName val="Weighting"/>
-      <sheetName val="Format"/>
-      <sheetName val="UserGuide_EWU-Calc"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>PAH-RD</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34EBCAD2-3C4A-44EF-BBA5-178ECC88D796}" name="Tabelle1" displayName="Tabelle1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:K24" xr:uid="{34EBCAD2-3C4A-44EF-BBA5-178ECC88D796}"/>
@@ -4721,20 +4695,20 @@
       <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
     </row>
     <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="76"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
@@ -5289,123 +5263,128 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5968291D-018D-489B-8F0A-6761B796FEB6}">
   <sheetPr codeName="Tabelle12"/>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.08984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="14.7265625" style="25" customWidth="1"/>
-    <col min="23" max="16384" width="8.81640625" style="22"/>
+    <col min="2" max="27" width="14.7265625" style="25" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="24">
+      <c r="H2" s="24">
         <v>0.21059999999999998</v>
       </c>
-      <c r="D2" s="24">
+      <c r="I2" s="24">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="J2" s="24">
         <v>0.25</v>
       </c>
-      <c r="F2" s="24">
+      <c r="K2" s="24">
         <v>0.11278195488721804</v>
       </c>
-      <c r="G2" s="24">
+      <c r="L2" s="24">
         <v>1</v>
       </c>
-      <c r="H2" s="24">
-        <v>0</v>
-      </c>
-      <c r="I2" s="24">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24">
-        <v>0</v>
-      </c>
-      <c r="K2" s="24">
-        <v>0</v>
-      </c>
-      <c r="L2" s="24">
-        <v>0</v>
-      </c>
       <c r="M2" s="24">
         <v>0</v>
       </c>
@@ -5436,48 +5415,53 @@
       <c r="V2" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W2" s="24">
+        <v>0</v>
+      </c>
+      <c r="X2" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="24">
-        <f t="shared" ref="B3:B17" si="0">1/16</f>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24">
+        <f t="shared" ref="G3:G17" si="0">1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C3" s="24">
+      <c r="H3" s="24">
         <v>6.3099999999999989E-2</v>
       </c>
-      <c r="D3" s="24">
+      <c r="I3" s="24">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="J3" s="24">
         <v>0.01</v>
       </c>
-      <c r="F3" s="24">
+      <c r="K3" s="24">
         <v>0.11278195488721804</v>
       </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24">
         <v>1</v>
       </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="24">
-        <v>0</v>
-      </c>
       <c r="N3" s="24">
         <v>0</v>
       </c>
@@ -5505,51 +5489,56 @@
       <c r="V3" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W3" s="24">
+        <v>0</v>
+      </c>
+      <c r="X3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C4" s="24">
+      <c r="H4" s="24">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="I4" s="24">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
         <v>4.5112781954887216E-2</v>
       </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24">
         <v>1</v>
       </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24">
-        <v>0</v>
-      </c>
       <c r="O4" s="24">
         <v>0</v>
       </c>
@@ -5574,54 +5563,59 @@
       <c r="V4" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W4" s="24">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="H5" s="24">
         <v>1.84E-2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="I5" s="24">
         <v>5.8499999999999996E-2</v>
       </c>
-      <c r="E5" s="24">
-        <v>0</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
         <v>4.5112781954887216E-2</v>
       </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
         <v>1</v>
       </c>
-      <c r="K5" s="24">
-        <v>0</v>
-      </c>
-      <c r="L5" s="24">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
-        <v>0</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
       <c r="P5" s="24">
         <v>0</v>
       </c>
@@ -5643,57 +5637,62 @@
       <c r="V5" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W5" s="24">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="H6" s="24">
         <v>8.9600000000000013E-2</v>
       </c>
-      <c r="D6" s="24">
+      <c r="I6" s="24">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
         <v>0.11278195488721804</v>
       </c>
-      <c r="G6" s="24">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
         <v>1</v>
       </c>
-      <c r="L6" s="24">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="24">
-        <v>0</v>
-      </c>
       <c r="Q6" s="24">
         <v>0</v>
       </c>
@@ -5712,60 +5711,65 @@
       <c r="V6" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W6" s="24">
+        <v>0</v>
+      </c>
+      <c r="X6" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C7" s="24">
+      <c r="H7" s="24">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="D7" s="24">
+      <c r="I7" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>0</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
       <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
         <v>1</v>
       </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24">
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
       <c r="R7" s="24">
         <v>0</v>
       </c>
@@ -5781,63 +5785,68 @@
       <c r="V7" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W7" s="24">
+        <v>0</v>
+      </c>
+      <c r="X7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C8" s="24">
+      <c r="H8" s="24">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="D8" s="24">
+      <c r="I8" s="24">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="E8" s="24">
+      <c r="J8" s="24">
         <v>0.34</v>
       </c>
-      <c r="F8" s="24">
+      <c r="K8" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
       <c r="L8" s="24">
         <v>0</v>
       </c>
       <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="24">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0</v>
+      </c>
+      <c r="R8" s="24">
         <v>1</v>
       </c>
-      <c r="N8" s="24">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>0</v>
-      </c>
-      <c r="R8" s="24">
-        <v>0</v>
-      </c>
       <c r="S8" s="24">
         <v>0</v>
       </c>
@@ -5850,42 +5859,47 @@
       <c r="V8" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W8" s="24">
+        <v>0</v>
+      </c>
+      <c r="X8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="H9" s="24">
         <v>6.2E-2</v>
       </c>
-      <c r="D9" s="24">
+      <c r="I9" s="24">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="J9" s="24">
         <v>0.01</v>
       </c>
-      <c r="F9" s="24">
+      <c r="K9" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <v>0</v>
-      </c>
-      <c r="J9" s="24">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
       <c r="L9" s="24">
         <v>0</v>
       </c>
@@ -5893,23 +5907,23 @@
         <v>0</v>
       </c>
       <c r="N9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>0</v>
-      </c>
-      <c r="R9" s="24">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
       <c r="T9" s="24">
         <v>0</v>
       </c>
@@ -5919,42 +5933,47 @@
       <c r="V9" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W9" s="24">
+        <v>0</v>
+      </c>
+      <c r="X9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C10" s="24">
+      <c r="H10" s="24">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="D10" s="24">
+      <c r="I10" s="24">
         <v>6.5700000000000008E-2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="J10" s="24">
         <v>0.01</v>
       </c>
-      <c r="F10" s="24">
+      <c r="K10" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
       <c r="L10" s="24">
         <v>0</v>
       </c>
@@ -5965,65 +5984,70 @@
         <v>0</v>
       </c>
       <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24">
         <v>1</v>
       </c>
-      <c r="P10" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>0</v>
-      </c>
-      <c r="R10" s="24">
-        <v>0</v>
-      </c>
-      <c r="S10" s="24">
-        <v>0</v>
-      </c>
-      <c r="T10" s="24">
-        <v>0</v>
-      </c>
       <c r="U10" s="24">
         <v>0</v>
       </c>
       <c r="V10" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10" s="24">
+        <v>0</v>
+      </c>
+      <c r="X10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="H11" s="24">
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="D11" s="24">
+      <c r="I11" s="24">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="J11" s="24">
         <v>0.09</v>
       </c>
-      <c r="F11" s="24">
+      <c r="K11" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="24">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
       <c r="L11" s="24">
         <v>0</v>
       </c>
@@ -6037,62 +6061,67 @@
         <v>0</v>
       </c>
       <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="24">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
         <v>1</v>
       </c>
-      <c r="Q11" s="24">
-        <v>0</v>
-      </c>
-      <c r="R11" s="24">
-        <v>0</v>
-      </c>
-      <c r="S11" s="24">
-        <v>0</v>
-      </c>
-      <c r="T11" s="24">
-        <v>0</v>
-      </c>
-      <c r="U11" s="24">
-        <v>0</v>
-      </c>
       <c r="V11" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W11" s="24">
+        <v>0</v>
+      </c>
+      <c r="X11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C12" s="24">
+      <c r="H12" s="24">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="D12" s="24">
+      <c r="I12" s="24">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="E12" s="24">
+      <c r="J12" s="24">
         <v>0.01</v>
       </c>
-      <c r="F12" s="24">
+      <c r="K12" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
       <c r="L12" s="24">
         <v>0</v>
       </c>
@@ -6109,59 +6138,64 @@
         <v>0</v>
       </c>
       <c r="Q12" s="24">
+        <v>0</v>
+      </c>
+      <c r="R12" s="24">
+        <v>0</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <v>0</v>
+      </c>
+      <c r="V12" s="24">
         <v>1</v>
       </c>
-      <c r="R12" s="24">
-        <v>0</v>
-      </c>
-      <c r="S12" s="24">
-        <v>0</v>
-      </c>
-      <c r="T12" s="24">
-        <v>0</v>
-      </c>
-      <c r="U12" s="24">
-        <v>0</v>
-      </c>
-      <c r="V12" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W12" s="24">
+        <v>0</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C13" s="24">
+      <c r="H13" s="24">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="D13" s="24">
+      <c r="I13" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="J13" s="24">
         <v>0.25</v>
       </c>
-      <c r="F13" s="24">
+      <c r="K13" s="24">
         <v>4.5112781954887216E-2</v>
       </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0</v>
-      </c>
-      <c r="J13" s="24">
-        <v>0</v>
-      </c>
-      <c r="K13" s="24">
-        <v>0</v>
-      </c>
       <c r="L13" s="24">
         <v>0</v>
       </c>
@@ -6181,56 +6215,61 @@
         <v>0</v>
       </c>
       <c r="R13" s="24">
+        <v>0</v>
+      </c>
+      <c r="S13" s="24">
+        <v>0</v>
+      </c>
+      <c r="T13" s="24">
+        <v>0</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0</v>
+      </c>
+      <c r="V13" s="24">
+        <v>0</v>
+      </c>
+      <c r="W13" s="24">
         <v>1</v>
       </c>
-      <c r="S13" s="24">
-        <v>0</v>
-      </c>
-      <c r="T13" s="24">
-        <v>0</v>
-      </c>
-      <c r="U13" s="24">
-        <v>0</v>
-      </c>
-      <c r="V13" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C14" s="24">
+      <c r="H14" s="24">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="D14" s="24">
+      <c r="I14" s="24">
         <v>6.0599999999999994E-2</v>
       </c>
-      <c r="E14" s="24">
+      <c r="J14" s="24">
         <v>0.02</v>
       </c>
-      <c r="F14" s="24">
+      <c r="K14" s="24">
         <v>3.7593984962406013E-2</v>
       </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
       <c r="L14" s="24">
         <v>0</v>
       </c>
@@ -6253,53 +6292,58 @@
         <v>0</v>
       </c>
       <c r="S14" s="24">
+        <v>0</v>
+      </c>
+      <c r="T14" s="24">
+        <v>0</v>
+      </c>
+      <c r="U14" s="24">
+        <v>0</v>
+      </c>
+      <c r="V14" s="24">
+        <v>0</v>
+      </c>
+      <c r="W14" s="24">
+        <v>0</v>
+      </c>
+      <c r="X14" s="24">
         <v>1</v>
       </c>
-      <c r="T14" s="24">
-        <v>0</v>
-      </c>
-      <c r="U14" s="24">
-        <v>0</v>
-      </c>
-      <c r="V14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y14" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="H15" s="24">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="D15" s="24">
+      <c r="I15" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="J15" s="24">
         <v>0.01</v>
       </c>
-      <c r="F15" s="24">
+      <c r="K15" s="24">
         <v>3.7593984962406013E-2</v>
       </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0</v>
-      </c>
-      <c r="I15" s="24">
-        <v>0</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0</v>
-      </c>
       <c r="L15" s="24">
         <v>0</v>
       </c>
@@ -6325,50 +6369,55 @@
         <v>0</v>
       </c>
       <c r="T15" s="24">
+        <v>0</v>
+      </c>
+      <c r="U15" s="24">
+        <v>0</v>
+      </c>
+      <c r="V15" s="24">
+        <v>0</v>
+      </c>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
+      <c r="X15" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="24">
         <v>1</v>
       </c>
-      <c r="U15" s="24">
-        <v>0</v>
-      </c>
-      <c r="V15" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C16" s="24">
+      <c r="H16" s="24">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D16" s="24">
+      <c r="I16" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
-      <c r="I16" s="24">
-        <v>0</v>
-      </c>
-      <c r="J16" s="24">
-        <v>0</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
       <c r="L16" s="24">
         <v>0</v>
       </c>
@@ -6397,47 +6446,52 @@
         <v>0</v>
       </c>
       <c r="U16" s="24">
+        <v>0</v>
+      </c>
+      <c r="V16" s="24">
+        <v>0</v>
+      </c>
+      <c r="W16" s="24">
+        <v>0</v>
+      </c>
+      <c r="X16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="24">
         <v>1</v>
       </c>
-      <c r="V16" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="H17" s="24">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="D17" s="24">
+      <c r="I17" s="24">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
         <v>5.6390977443609019E-2</v>
       </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
       <c r="L17" s="24">
         <v>0</v>
       </c>
@@ -6469,6 +6523,21 @@
         <v>0</v>
       </c>
       <c r="V17" s="24">
+        <v>0</v>
+      </c>
+      <c r="W17" s="24">
+        <v>0</v>
+      </c>
+      <c r="X17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="24">
         <v>1</v>
       </c>
     </row>
@@ -6498,9 +6567,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="str">
-        <f>[1]GeneralInformation!B6</f>
-        <v>PAH-RD</v>
+      <c r="A2" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>340</v>
@@ -6680,8 +6748,8 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -6695,10 +6763,10 @@
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -6710,10 +6778,10 @@
       <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
@@ -6804,10 +6872,10 @@
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" s="28" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -10506,11 +10574,11 @@
       <c r="A1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">

--- a/CaseStudy3_RoadDebris/EWU_Dashboard_InputTemplate_RoadDebris.xlsx
+++ b/CaseStudy3_RoadDebris/EWU_Dashboard_InputTemplate_RoadDebris.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\CaseStudy3_RoadDebris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20DD68-FB20-4A43-8660-60D28E8D1EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E8B69-F2A5-4A88-AFA2-8F2D2E151058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -2212,9 +2212,6 @@
     <t>Default Amount</t>
   </si>
   <si>
-    <t>A central objective of waste management is to reduce impacts associated with waste generation and treatment to protect human health and the environment. As part of the Environmental Waste Utilization Dashboard (EWU Dashboard) Environmental Waste Utilization scores are calculated to assess the capability of waste management systems to reduce the adverse impacts of waste generation and waste management. Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is utilized through waste management. The EWU Dashboard enables to explore Environmental Waste Utilization scores for various waste management systems under changing boundary conditions and increases the transparency of indicator calculations. Monitoring the Environmental Waste Utilization of waste management systems allows to identify environmentally preferable waste management concepts and enables sound decision support.</t>
-  </si>
-  <si>
     <t>EWU Dashboard - Input Data Template</t>
   </si>
   <si>
@@ -2757,22 +2754,25 @@
     <t>Schmidt, S.; Laner, D. (in preparation): Environmental Waste Utilization score to monitor the performance of waste management systems</t>
   </si>
   <si>
-    <t>Impact-based Weighting</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Importance and Robustness (Sala et al. 2018)</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Distance-to-Target (Castellani et al. 2016)</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Planetary Boundaries (Bjorn &amp; Hauschild 2015)</t>
-  </si>
-  <si>
-    <t>Impact-based Weighting + Quality and Maturity (ILCD 2011)</t>
-  </si>
-  <si>
     <t>PAH-RD</t>
+  </si>
+  <si>
+    <t>A central objective of waste management is to reduce impacts associated with waste generation and treatment to protect human health and the environment. As part of the Environmental Waste Utilization Dashboard (EWU Dashboard) Environmental Waste Utilization scores are calculated to assess the capability of waste management systems to reduce the adverse impacts of waste generation and waste management. Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is preserved through waste management. The EWU Dashboard enables to explore Environmental Waste Utilization scores for various waste management systems under changing boundary conditions and increases the transparency of indicator calculations. Monitoring the Environmental Waste Utilization of waste management systems allows to identify environmentally preferable waste management concepts and enables sound decision support.</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Importance and Robustness (Sala et al. 2018)</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Distance-to-Target (Castellani et al. 2016)</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Planetary Boundaries (Bjorn &amp; Hauschild 2015)</t>
+  </si>
+  <si>
+    <t>Weighting based on impact size + Quality and Maturity (ILCD 2011)</t>
   </si>
 </sst>
 </file>
@@ -4665,7 +4665,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4685,12 +4687,12 @@
     </row>
     <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>313</v>
+        <v>445</v>
       </c>
       <c r="B4" s="78"/>
     </row>
@@ -4706,7 +4708,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" s="76"/>
     </row>
@@ -5266,7 +5268,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5276,22 +5278,22 @@
     <col min="28" max="16384" width="8.81640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="91" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>200</v>
@@ -6568,31 +6570,31 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>176</v>
@@ -6600,42 +6602,42 @@
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -6652,7 +6654,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6732,7 +6734,7 @@
     </row>
     <row r="4" spans="1:11" s="28" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>313</v>
+        <v>445</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="26"/>
@@ -6779,7 +6781,7 @@
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="26"/>
@@ -6814,7 +6816,7 @@
         <v>252</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -6927,7 +6929,7 @@
         <v>258</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6935,7 +6937,7 @@
         <v>259</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6972,7 +6974,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>286</v>
@@ -7044,50 +7046,50 @@
     </row>
     <row r="34" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -7339,7 +7341,7 @@
         <v>305</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M1" s="54"/>
     </row>
@@ -7348,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>66</v>
@@ -7368,7 +7370,7 @@
         <v>306</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M2" s="54"/>
     </row>
@@ -7377,7 +7379,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="53" t="s">
@@ -7429,7 +7431,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.3">
@@ -7437,7 +7439,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.3">
@@ -7445,7 +7447,7 @@
         <v>166</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.3">
@@ -7561,10 +7563,10 @@
     </row>
     <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.4">
@@ -7666,10 +7668,10 @@
     </row>
     <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>349</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>350</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>8</v>
@@ -7683,18 +7685,18 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="58" t="s">
         <v>351</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -7706,22 +7708,22 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>355</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>356</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>8</v>
@@ -7732,23 +7734,23 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>358</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>359</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
@@ -7759,23 +7761,23 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K5" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>360</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>361</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
@@ -7786,23 +7788,23 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>362</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>363</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>8</v>
@@ -7812,24 +7814,24 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K7" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>364</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>365</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>8</v>
@@ -7839,24 +7841,24 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K8" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>366</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>367</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>8</v>
@@ -7866,24 +7868,24 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="57" t="s">
         <v>368</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>369</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
@@ -7892,25 +7894,25 @@
         <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K10" s="58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="57" t="s">
         <v>372</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>373</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>8</v>
@@ -7919,25 +7921,25 @@
         <v>14</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" s="57" t="s">
         <v>374</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>375</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
@@ -7946,25 +7948,25 @@
         <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>378</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>379</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>8</v>
@@ -7973,24 +7975,24 @@
         <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K13" s="58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="57" t="s">
         <v>382</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>383</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
@@ -7999,7 +8001,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -8007,15 +8009,15 @@
       <c r="I14" s="9"/>
       <c r="J14" s="58"/>
       <c r="K14" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15" s="57" t="s">
         <v>386</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>387</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
@@ -8024,7 +8026,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -8032,15 +8034,15 @@
       <c r="I15" s="9"/>
       <c r="J15" s="58"/>
       <c r="K15" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="57" t="s">
         <v>388</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>389</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
@@ -8049,7 +8051,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -8057,15 +8059,15 @@
       <c r="I16" s="9"/>
       <c r="J16" s="60"/>
       <c r="K16" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>8</v>
@@ -8085,10 +8087,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>8</v>
@@ -8108,16 +8110,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -8131,16 +8133,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -8154,16 +8156,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -8177,16 +8179,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -8200,10 +8202,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>8</v>
@@ -8223,10 +8225,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>8</v>
@@ -8287,7 +8289,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E1" s="56" t="s">
         <v>3</v>
@@ -8305,15 +8307,15 @@
         <v>7</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2" s="61" t="s">
         <v>8</v>
@@ -8322,10 +8324,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>9</v>
@@ -8340,22 +8342,22 @@
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>390</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>391</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="61" t="s">
         <v>9</v>
@@ -8370,10 +8372,10 @@
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>393</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>394</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>8</v>
@@ -8382,10 +8384,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G4" s="61" t="s">
         <v>9</v>
@@ -8400,22 +8402,22 @@
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>395</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>396</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>9</v>
@@ -8430,10 +8432,10 @@
     </row>
     <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="62" t="s">
         <v>8</v>
@@ -8442,10 +8444,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G6" s="62" t="s">
         <v>9</v>
@@ -8460,10 +8462,10 @@
     </row>
     <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>8</v>
@@ -8472,10 +8474,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G7" s="62" t="s">
         <v>9</v>
@@ -8491,10 +8493,10 @@
     </row>
     <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>8</v>
@@ -8503,10 +8505,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>9</v>
@@ -8522,10 +8524,10 @@
     </row>
     <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>8</v>
@@ -8534,10 +8536,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G9" s="62" t="s">
         <v>9</v>
@@ -8553,10 +8555,10 @@
     </row>
     <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>8</v>
@@ -8565,10 +8567,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G10" s="63" t="s">
         <v>9</v>
@@ -8583,10 +8585,10 @@
     </row>
     <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>8</v>
@@ -8595,10 +8597,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G11" s="63" t="s">
         <v>9</v>
@@ -8613,10 +8615,10 @@
     </row>
     <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>8</v>
@@ -8625,10 +8627,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>9</v>
@@ -8643,10 +8645,10 @@
     </row>
     <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>8</v>
@@ -8655,10 +8657,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>9</v>
@@ -8673,10 +8675,10 @@
     </row>
     <row r="14" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>8</v>
@@ -8685,10 +8687,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>9</v>
@@ -8703,10 +8705,10 @@
     </row>
     <row r="15" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>8</v>
@@ -8715,10 +8717,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G15" s="65" t="s">
         <v>9</v>
@@ -8733,10 +8735,10 @@
     </row>
     <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>8</v>
@@ -8745,10 +8747,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G16" s="66" t="s">
         <v>9</v>
@@ -8763,10 +8765,10 @@
     </row>
     <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>8</v>
@@ -8775,10 +8777,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G17" s="66" t="s">
         <v>9</v>
@@ -8793,10 +8795,10 @@
     </row>
     <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>8</v>
@@ -8805,10 +8807,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G18" s="66" t="s">
         <v>9</v>
@@ -8823,10 +8825,10 @@
     </row>
     <row r="19" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="67" t="s">
         <v>8</v>
@@ -8835,10 +8837,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G19" s="67" t="s">
         <v>9</v>
@@ -8853,10 +8855,10 @@
     </row>
     <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>8</v>
@@ -8865,10 +8867,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G20" s="67" t="s">
         <v>9</v>
@@ -8883,10 +8885,10 @@
     </row>
     <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>8</v>
@@ -8895,10 +8897,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>9</v>
@@ -8913,10 +8915,10 @@
     </row>
     <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>8</v>
@@ -8925,10 +8927,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>9</v>
@@ -8943,10 +8945,10 @@
     </row>
     <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C23" s="69" t="s">
         <v>8</v>
@@ -8955,10 +8957,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G23" s="69" t="s">
         <v>14</v>
@@ -8973,10 +8975,10 @@
     </row>
     <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>13</v>
@@ -8985,10 +8987,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G24" s="69" t="s">
         <v>14</v>
@@ -9004,10 +9006,10 @@
     </row>
     <row r="25" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>13</v>
@@ -9016,10 +9018,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G25" s="69" t="s">
         <v>14</v>
@@ -9034,10 +9036,10 @@
     </row>
     <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C26" s="69" t="s">
         <v>13</v>
@@ -9046,10 +9048,10 @@
         <v>16</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G26" s="69" t="s">
         <v>14</v>
@@ -9065,10 +9067,10 @@
     </row>
     <row r="27" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" s="69" t="s">
         <v>397</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>398</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>8</v>
@@ -9077,10 +9079,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G27" s="69" t="s">
         <v>14</v>
@@ -9095,22 +9097,22 @@
     </row>
     <row r="28" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" s="69" t="s">
         <v>399</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>400</v>
       </c>
       <c r="C28" s="69" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G28" s="69" t="s">
         <v>14</v>
@@ -9125,10 +9127,10 @@
     </row>
     <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="69" t="s">
         <v>402</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>403</v>
       </c>
       <c r="C29" s="69" t="s">
         <v>8</v>
@@ -9137,10 +9139,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G29" s="69" t="s">
         <v>14</v>
@@ -9155,10 +9157,10 @@
     </row>
     <row r="30" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="B30" s="69" t="s">
         <v>404</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>405</v>
       </c>
       <c r="C30" s="69" t="s">
         <v>8</v>
@@ -9167,10 +9169,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G30" s="69" t="s">
         <v>14</v>
@@ -9185,22 +9187,22 @@
     </row>
     <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="B31" s="69" t="s">
         <v>406</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>407</v>
       </c>
       <c r="C31" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G31" s="69" t="s">
         <v>14</v>
@@ -9215,22 +9217,22 @@
     </row>
     <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="69" t="s">
         <v>408</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>409</v>
       </c>
       <c r="C32" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>14</v>
@@ -9245,22 +9247,22 @@
     </row>
     <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="69" t="s">
         <v>410</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>411</v>
       </c>
       <c r="C33" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G33" s="69" t="s">
         <v>14</v>
@@ -9275,22 +9277,22 @@
     </row>
     <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>412</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>413</v>
       </c>
       <c r="C34" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G34" s="69" t="s">
         <v>14</v>
@@ -9305,10 +9307,10 @@
     </row>
     <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="69" t="s">
         <v>414</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>415</v>
       </c>
       <c r="C35" s="69" t="s">
         <v>8</v>
@@ -9317,10 +9319,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G35" s="69" t="s">
         <v>14</v>
@@ -9335,10 +9337,10 @@
     </row>
     <row r="36" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="B36" s="69" t="s">
         <v>416</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>417</v>
       </c>
       <c r="C36" s="69" t="s">
         <v>8</v>
@@ -9347,10 +9349,10 @@
         <v>16</v>
       </c>
       <c r="E36" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G36" s="69" t="s">
         <v>14</v>
@@ -9365,10 +9367,10 @@
     </row>
     <row r="37" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="B37" s="69" t="s">
         <v>418</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>419</v>
       </c>
       <c r="C37" s="69" t="s">
         <v>8</v>
@@ -9377,10 +9379,10 @@
         <v>16</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G37" s="69" t="s">
         <v>14</v>
@@ -9395,10 +9397,10 @@
     </row>
     <row r="38" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" s="69" t="s">
         <v>420</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>421</v>
       </c>
       <c r="C38" s="69" t="s">
         <v>8</v>
@@ -9407,10 +9409,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G38" s="69" t="s">
         <v>14</v>
@@ -9425,10 +9427,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B39" s="69" t="s">
         <v>422</v>
-      </c>
-      <c r="B39" s="69" t="s">
-        <v>423</v>
       </c>
       <c r="C39" s="69" t="s">
         <v>8</v>
@@ -9437,10 +9439,10 @@
         <v>16</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G39" s="69" t="s">
         <v>14</v>
@@ -9455,22 +9457,22 @@
     </row>
     <row r="40" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="B40" s="69" t="s">
         <v>424</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>425</v>
       </c>
       <c r="C40" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G40" s="69" t="s">
         <v>14</v>
@@ -9485,22 +9487,22 @@
     </row>
     <row r="41" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="B41" s="69" t="s">
         <v>424</v>
-      </c>
-      <c r="B41" s="69" t="s">
-        <v>425</v>
       </c>
       <c r="C41" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G41" s="69" t="s">
         <v>14</v>
@@ -9515,10 +9517,10 @@
     </row>
     <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B42" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C42" s="70" t="s">
         <v>8</v>
@@ -9527,10 +9529,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G42" s="70" t="s">
         <v>14</v>
@@ -9545,10 +9547,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B43" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C43" s="70" t="s">
         <v>13</v>
@@ -9557,10 +9559,10 @@
         <v>16</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G43" s="70" t="s">
         <v>14</v>
@@ -9576,10 +9578,10 @@
     </row>
     <row r="44" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B44" s="70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" s="70" t="s">
         <v>13</v>
@@ -9588,10 +9590,10 @@
         <v>9</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G44" s="70" t="s">
         <v>14</v>
@@ -9606,10 +9608,10 @@
     </row>
     <row r="45" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B45" s="70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C45" s="70" t="s">
         <v>13</v>
@@ -9618,10 +9620,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G45" s="70" t="s">
         <v>14</v>
@@ -9637,10 +9639,10 @@
     </row>
     <row r="46" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" s="70" t="s">
         <v>397</v>
-      </c>
-      <c r="B46" s="70" t="s">
-        <v>398</v>
       </c>
       <c r="C46" s="70" t="s">
         <v>8</v>
@@ -9649,10 +9651,10 @@
         <v>16</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G46" s="70" t="s">
         <v>14</v>
@@ -9667,22 +9669,22 @@
     </row>
     <row r="47" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="B47" s="70" t="s">
         <v>399</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>400</v>
       </c>
       <c r="C47" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G47" s="70" t="s">
         <v>14</v>
@@ -9697,10 +9699,10 @@
     </row>
     <row r="48" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="B48" s="70" t="s">
         <v>402</v>
-      </c>
-      <c r="B48" s="70" t="s">
-        <v>403</v>
       </c>
       <c r="C48" s="70" t="s">
         <v>8</v>
@@ -9709,10 +9711,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G48" s="70" t="s">
         <v>14</v>
@@ -9727,10 +9729,10 @@
     </row>
     <row r="49" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="B49" s="70" t="s">
         <v>404</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>405</v>
       </c>
       <c r="C49" s="70" t="s">
         <v>8</v>
@@ -9739,10 +9741,10 @@
         <v>12</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G49" s="70" t="s">
         <v>14</v>
@@ -9757,22 +9759,22 @@
     </row>
     <row r="50" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="B50" s="70" t="s">
         <v>406</v>
-      </c>
-      <c r="B50" s="70" t="s">
-        <v>407</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G50" s="70" t="s">
         <v>14</v>
@@ -9787,22 +9789,22 @@
     </row>
     <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="B51" s="70" t="s">
         <v>408</v>
-      </c>
-      <c r="B51" s="70" t="s">
-        <v>409</v>
       </c>
       <c r="C51" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G51" s="70" t="s">
         <v>14</v>
@@ -9817,22 +9819,22 @@
     </row>
     <row r="52" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="B52" s="70" t="s">
         <v>410</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>411</v>
       </c>
       <c r="C52" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G52" s="70" t="s">
         <v>14</v>
@@ -9847,22 +9849,22 @@
     </row>
     <row r="53" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="B53" s="70" t="s">
         <v>412</v>
-      </c>
-      <c r="B53" s="70" t="s">
-        <v>413</v>
       </c>
       <c r="C53" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G53" s="70" t="s">
         <v>14</v>
@@ -9877,10 +9879,10 @@
     </row>
     <row r="54" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" s="70" t="s">
         <v>414</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>415</v>
       </c>
       <c r="C54" s="70" t="s">
         <v>8</v>
@@ -9889,10 +9891,10 @@
         <v>14</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G54" s="70" t="s">
         <v>14</v>
@@ -9907,10 +9909,10 @@
     </row>
     <row r="55" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="70" t="s">
         <v>416</v>
-      </c>
-      <c r="B55" s="70" t="s">
-        <v>417</v>
       </c>
       <c r="C55" s="70" t="s">
         <v>8</v>
@@ -9919,10 +9921,10 @@
         <v>16</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G55" s="70" t="s">
         <v>14</v>
@@ -9937,10 +9939,10 @@
     </row>
     <row r="56" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" s="70" t="s">
         <v>418</v>
-      </c>
-      <c r="B56" s="70" t="s">
-        <v>419</v>
       </c>
       <c r="C56" s="70" t="s">
         <v>8</v>
@@ -9949,10 +9951,10 @@
         <v>16</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F56" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G56" s="70" t="s">
         <v>14</v>
@@ -9967,10 +9969,10 @@
     </row>
     <row r="57" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" s="70" t="s">
         <v>420</v>
-      </c>
-      <c r="B57" s="70" t="s">
-        <v>421</v>
       </c>
       <c r="C57" s="70" t="s">
         <v>8</v>
@@ -9979,10 +9981,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G57" s="70" t="s">
         <v>14</v>
@@ -9997,10 +9999,10 @@
     </row>
     <row r="58" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="B58" s="70" t="s">
         <v>422</v>
-      </c>
-      <c r="B58" s="70" t="s">
-        <v>423</v>
       </c>
       <c r="C58" s="70" t="s">
         <v>8</v>
@@ -10009,10 +10011,10 @@
         <v>16</v>
       </c>
       <c r="E58" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F58" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G58" s="70" t="s">
         <v>14</v>
@@ -10027,22 +10029,22 @@
     </row>
     <row r="59" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="B59" s="70" t="s">
         <v>424</v>
-      </c>
-      <c r="B59" s="70" t="s">
-        <v>425</v>
       </c>
       <c r="C59" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E59" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G59" s="70" t="s">
         <v>14</v>
@@ -10057,22 +10059,22 @@
     </row>
     <row r="60" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="B60" s="70" t="s">
         <v>424</v>
-      </c>
-      <c r="B60" s="70" t="s">
-        <v>425</v>
       </c>
       <c r="C60" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E60" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F60" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G60" s="70" t="s">
         <v>14</v>
@@ -10087,10 +10089,10 @@
     </row>
     <row r="61" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C61" s="71" t="s">
         <v>8</v>
@@ -10099,10 +10101,10 @@
         <v>14</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F61" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G61" s="71" t="s">
         <v>14</v>
@@ -10117,10 +10119,10 @@
     </row>
     <row r="62" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="71" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B62" s="71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C62" s="71" t="s">
         <v>13</v>
@@ -10129,10 +10131,10 @@
         <v>16</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G62" s="71" t="s">
         <v>14</v>
@@ -10147,10 +10149,10 @@
     </row>
     <row r="63" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="71" t="s">
         <v>397</v>
-      </c>
-      <c r="B63" s="71" t="s">
-        <v>398</v>
       </c>
       <c r="C63" s="71" t="s">
         <v>8</v>
@@ -10159,10 +10161,10 @@
         <v>16</v>
       </c>
       <c r="E63" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F63" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G63" s="71" t="s">
         <v>14</v>
@@ -10177,10 +10179,10 @@
     </row>
     <row r="64" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="71" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" s="71" t="s">
         <v>8</v>
@@ -10189,10 +10191,10 @@
         <v>15</v>
       </c>
       <c r="E64" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F64" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G64" s="71" t="s">
         <v>14</v>
@@ -10207,10 +10209,10 @@
     </row>
     <row r="65" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="71" t="s">
+        <v>427</v>
+      </c>
+      <c r="B65" s="71" t="s">
         <v>428</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>429</v>
       </c>
       <c r="C65" s="71" t="s">
         <v>8</v>
@@ -10219,10 +10221,10 @@
         <v>15</v>
       </c>
       <c r="E65" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F65" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G65" s="71" t="s">
         <v>14</v>
@@ -10237,22 +10239,22 @@
     </row>
     <row r="66" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="71" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" s="71" t="s">
         <v>430</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>431</v>
       </c>
       <c r="C66" s="71" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E66" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F66" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G66" s="71" t="s">
         <v>14</v>
@@ -10267,22 +10269,22 @@
     </row>
     <row r="67" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="71" t="s">
+        <v>432</v>
+      </c>
+      <c r="B67" s="71" t="s">
         <v>433</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>434</v>
       </c>
       <c r="C67" s="71" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E67" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F67" s="71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G67" s="71" t="s">
         <v>14</v>
@@ -10297,10 +10299,10 @@
     </row>
     <row r="68" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C68" s="72" t="s">
         <v>8</v>
@@ -10309,10 +10311,10 @@
         <v>14</v>
       </c>
       <c r="E68" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F68" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>14</v>
@@ -10327,10 +10329,10 @@
     </row>
     <row r="69" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C69" s="72" t="s">
         <v>13</v>
@@ -10339,10 +10341,10 @@
         <v>16</v>
       </c>
       <c r="E69" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F69" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>14</v>
@@ -10357,10 +10359,10 @@
     </row>
     <row r="70" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="72" t="s">
+        <v>427</v>
+      </c>
+      <c r="B70" s="72" t="s">
         <v>428</v>
-      </c>
-      <c r="B70" s="72" t="s">
-        <v>429</v>
       </c>
       <c r="C70" s="72" t="s">
         <v>8</v>
@@ -10369,10 +10371,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F70" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>14</v>
@@ -10387,22 +10389,22 @@
     </row>
     <row r="71" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="B71" s="72" t="s">
         <v>430</v>
-      </c>
-      <c r="B71" s="72" t="s">
-        <v>431</v>
       </c>
       <c r="C71" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E71" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F71" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>14</v>
@@ -10417,22 +10419,22 @@
     </row>
     <row r="72" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="B72" s="72" t="s">
         <v>433</v>
-      </c>
-      <c r="B72" s="72" t="s">
-        <v>434</v>
       </c>
       <c r="C72" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E72" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F72" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G72" s="72" t="s">
         <v>14</v>
@@ -10475,7 +10477,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>311</v>
@@ -10487,7 +10489,7 @@
         <v>38</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -10533,13 +10535,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -10845,7 +10847,7 @@
         <v>203</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>0</v>
@@ -10877,19 +10879,19 @@
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D2" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" s="73" t="s">
         <v>436</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>437</v>
       </c>
       <c r="F2" s="73" t="s">
         <v>8</v>
@@ -10898,10 +10900,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I2" s="73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J2" s="73" t="s">
         <v>16</v>

--- a/CaseStudy3_RoadDebris/EWU_Dashboard_InputTemplate_RoadDebris.xlsx
+++ b/CaseStudy3_RoadDebris/EWU_Dashboard_InputTemplate_RoadDebris.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarahSchmidt\Documents\sourcetree\MoEWe\CaseStudy3_RoadDebris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E8B69-F2A5-4A88-AFA2-8F2D2E151058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD67BB71-E588-44C0-9975-FF01B259C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserGuide" sheetId="4" r:id="rId1"/>
@@ -1738,9 +1738,6 @@
     <t>LCIA Method</t>
   </si>
   <si>
-    <t>Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is utilized through waste management.</t>
-  </si>
-  <si>
     <t>Person Equivalents</t>
   </si>
   <si>
@@ -1753,9 +1750,6 @@
     <t>Shared Socioeconomic Pathway (SSP)</t>
   </si>
   <si>
-    <t>Weighting factors that are used for aggregating impact category wise calculated impacts and indicator scores.</t>
-  </si>
-  <si>
     <t>Source of an exchange.</t>
   </si>
   <si>
@@ -1768,16 +1762,10 @@
     <t xml:space="preserve">Exchanges link activities and are defined by a source (input) and a target (activity). </t>
   </si>
   <si>
-    <t>Shared Socioeconomic Pathways are scenarios of projected socioeconomic global changes related to different climate policies. SSP2 ("Middle of the road") describes a scenario in which social, economic, and technological trends follow historical patterns.</t>
-  </si>
-  <si>
     <t>Representative Concentration Pathway (RCP)</t>
   </si>
   <si>
     <t>Unit of normalized LCA results. A person equivalent quantifies the environmental impact caused annually by the activities of an average person.</t>
-  </si>
-  <si>
-    <t>According to ISO 14044 (ISO 2006), normalization is an optional step of life cycle impact assessment (LCIA) in which impacts are divided by normalization factors. Normalization factors represent the average impact of a person in a reference region for a certain impact category in a reference year.</t>
   </si>
   <si>
     <t>A set of characterization factors that is assigned to elementary flows (biosphere exchanges).</t>
@@ -2773,6 +2761,18 @@
   </si>
   <si>
     <t>Weighting based on impact size + Quality and Maturity (ILCD 2011)</t>
+  </si>
+  <si>
+    <t>Environmental Waste Utilization quantifies the share of the environmental value of disposed materials which is preserved through waste management.</t>
+  </si>
+  <si>
+    <t>Normalization is an optional step of life cycle impact assessment (LCIA) in which impacts are divided by normalization factors (ISO 14044-2006). Normalization factors reflect the average impact of a person in a reference region for a specific impact category in a reference year.</t>
+  </si>
+  <si>
+    <t>Shared Socioeconomic Pathways describe scenarios of projected socioeconomic global changes related to different climate policies. SSP2 ("Middle of the road") describes a scenario in which social, economic, and technological trends follow historical patterns (cf. https://en.wikipedia.org/wiki/Shared_Socioeconomic_Pathways).</t>
+  </si>
+  <si>
+    <t>Weighting factors are used to aggregate impact category wise calculated impacts and indicator scores.</t>
   </si>
 </sst>
 </file>
@@ -4665,7 +4665,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
@@ -4687,12 +4687,12 @@
     </row>
     <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B4" s="78"/>
     </row>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="77" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B7" s="76"/>
     </row>
@@ -4733,7 +4733,7 @@
         <v>177</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -4741,7 +4741,7 @@
         <v>179</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4778,10 +4778,10 @@
     </row>
     <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4805,15 +4805,15 @@
         <v>184</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5281,19 +5281,19 @@
     <row r="1" spans="1:27" ht="91" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>446</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>450</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>200</v>
@@ -6570,31 +6570,31 @@
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B5" s="74" t="s">
         <v>176</v>
@@ -6602,42 +6602,42 @@
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="4" spans="1:11" s="28" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="26"/>
@@ -6781,7 +6781,7 @@
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="77" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="26"/>
@@ -6813,10 +6813,10 @@
     </row>
     <row r="11" spans="1:11" s="28" customFormat="1" ht="126" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="12" spans="1:11" s="28" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="15" spans="1:11" s="28" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="80" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="26"/>
@@ -6918,42 +6918,42 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6961,135 +6961,135 @@
         <v>183</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>285</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -7106,8 +7106,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7130,7 +7130,7 @@
         <v>219</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7138,7 +7138,7 @@
         <v>220</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7146,7 +7146,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -7154,12 +7154,12 @@
         <v>222</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>225</v>
@@ -7170,7 +7170,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -7178,7 +7178,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7186,15 +7186,15 @@
         <v>210</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="44" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -7202,23 +7202,23 @@
         <v>235</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="56" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>249</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="42" x14ac:dyDescent="0.3">
@@ -7226,7 +7226,7 @@
         <v>226</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="56" x14ac:dyDescent="0.3">
@@ -7234,7 +7234,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="42" x14ac:dyDescent="0.3">
@@ -7242,15 +7242,15 @@
         <v>224</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7258,15 +7258,15 @@
         <v>227</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>246</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7274,7 +7274,7 @@
         <v>223</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.3">
@@ -7282,7 +7282,7 @@
         <v>183</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>241</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -7338,10 +7338,10 @@
       </c>
       <c r="J1" s="54"/>
       <c r="K1" s="54" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M1" s="54"/>
     </row>
@@ -7350,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>66</v>
@@ -7367,10 +7367,10 @@
       </c>
       <c r="J2" s="54"/>
       <c r="K2" s="54" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M2" s="54"/>
     </row>
@@ -7379,7 +7379,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="53" t="s">
@@ -7431,7 +7431,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.3">
@@ -7439,7 +7439,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.3">
@@ -7447,7 +7447,7 @@
         <v>166</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.3">
@@ -7502,18 +7502,18 @@
     </row>
     <row r="18" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.4">
@@ -7523,10 +7523,10 @@
     </row>
     <row r="22" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13" x14ac:dyDescent="0.3">
@@ -7563,10 +7563,10 @@
     </row>
     <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.4">
@@ -7576,7 +7576,7 @@
     </row>
     <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>46</v>
@@ -7651,13 +7651,13 @@
         <v>40</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H1" s="47" t="s">
         <v>165</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J1" s="47" t="s">
         <v>41</v>
@@ -7668,10 +7668,10 @@
     </row>
     <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>8</v>
@@ -7685,18 +7685,18 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -7708,22 +7708,22 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>8</v>
@@ -7734,23 +7734,23 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
@@ -7761,23 +7761,23 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K5" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
@@ -7788,23 +7788,23 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>8</v>
@@ -7814,24 +7814,24 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K7" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>8</v>
@@ -7841,24 +7841,24 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K8" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>8</v>
@@ -7868,24 +7868,24 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
@@ -7894,25 +7894,25 @@
         <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K10" s="58" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>8</v>
@@ -7921,25 +7921,25 @@
         <v>14</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
@@ -7948,25 +7948,25 @@
         <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>8</v>
@@ -7975,24 +7975,24 @@
         <v>14</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K13" s="58" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
@@ -8001,7 +8001,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -8009,15 +8009,15 @@
       <c r="I14" s="9"/>
       <c r="J14" s="58"/>
       <c r="K14" s="58" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
@@ -8026,7 +8026,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -8034,15 +8034,15 @@
       <c r="I15" s="9"/>
       <c r="J15" s="58"/>
       <c r="K15" s="58" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
@@ -8051,7 +8051,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -8059,15 +8059,15 @@
       <c r="I16" s="9"/>
       <c r="J16" s="60"/>
       <c r="K16" s="58" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>8</v>
@@ -8080,17 +8080,17 @@
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J17" s="58"/>
       <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>8</v>
@@ -8103,109 +8103,109 @@
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J18" s="58"/>
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J19" s="58"/>
       <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J20" s="58"/>
       <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J21" s="58"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J22" s="58"/>
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>8</v>
@@ -8218,17 +8218,17 @@
       <c r="G23" s="10"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J23" s="58"/>
       <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>8</v>
@@ -8241,7 +8241,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J24" s="58"/>
       <c r="K24" s="58"/>
@@ -8289,7 +8289,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E1" s="56" t="s">
         <v>3</v>
@@ -8307,15 +8307,15 @@
         <v>7</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C2" s="61" t="s">
         <v>8</v>
@@ -8324,10 +8324,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>9</v>
@@ -8342,22 +8342,22 @@
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G3" s="61" t="s">
         <v>9</v>
@@ -8372,10 +8372,10 @@
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>8</v>
@@ -8384,10 +8384,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G4" s="61" t="s">
         <v>9</v>
@@ -8402,22 +8402,22 @@
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>9</v>
@@ -8432,10 +8432,10 @@
     </row>
     <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C6" s="62" t="s">
         <v>8</v>
@@ -8444,10 +8444,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G6" s="62" t="s">
         <v>9</v>
@@ -8462,10 +8462,10 @@
     </row>
     <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="62" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>8</v>
@@ -8474,10 +8474,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G7" s="62" t="s">
         <v>9</v>
@@ -8493,10 +8493,10 @@
     </row>
     <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="62" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>8</v>
@@ -8505,10 +8505,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>9</v>
@@ -8524,10 +8524,10 @@
     </row>
     <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="62" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>8</v>
@@ -8536,10 +8536,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G9" s="62" t="s">
         <v>9</v>
@@ -8555,10 +8555,10 @@
     </row>
     <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>8</v>
@@ -8567,10 +8567,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G10" s="63" t="s">
         <v>9</v>
@@ -8585,10 +8585,10 @@
     </row>
     <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="63" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>8</v>
@@ -8597,10 +8597,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G11" s="63" t="s">
         <v>9</v>
@@ -8615,10 +8615,10 @@
     </row>
     <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="64" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>8</v>
@@ -8627,10 +8627,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>9</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>8</v>
@@ -8657,10 +8657,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G13" s="64" t="s">
         <v>9</v>
@@ -8675,10 +8675,10 @@
     </row>
     <row r="14" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>8</v>
@@ -8687,10 +8687,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G14" s="65" t="s">
         <v>9</v>
@@ -8705,10 +8705,10 @@
     </row>
     <row r="15" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>8</v>
@@ -8717,10 +8717,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G15" s="65" t="s">
         <v>9</v>
@@ -8735,10 +8735,10 @@
     </row>
     <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="66" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>8</v>
@@ -8747,10 +8747,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G16" s="66" t="s">
         <v>9</v>
@@ -8765,10 +8765,10 @@
     </row>
     <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="66" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C17" s="66" t="s">
         <v>8</v>
@@ -8777,10 +8777,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G17" s="66" t="s">
         <v>9</v>
@@ -8795,10 +8795,10 @@
     </row>
     <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="66" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>8</v>
@@ -8807,10 +8807,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G18" s="66" t="s">
         <v>9</v>
@@ -8825,10 +8825,10 @@
     </row>
     <row r="19" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="67" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C19" s="67" t="s">
         <v>8</v>
@@ -8837,10 +8837,10 @@
         <v>9</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G19" s="67" t="s">
         <v>9</v>
@@ -8855,10 +8855,10 @@
     </row>
     <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>8</v>
@@ -8867,10 +8867,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G20" s="67" t="s">
         <v>9</v>
@@ -8885,10 +8885,10 @@
     </row>
     <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="68" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>8</v>
@@ -8897,10 +8897,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>9</v>
@@ -8915,10 +8915,10 @@
     </row>
     <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="68" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>8</v>
@@ -8927,10 +8927,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>9</v>
@@ -8945,10 +8945,10 @@
     </row>
     <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C23" s="69" t="s">
         <v>8</v>
@@ -8957,10 +8957,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G23" s="69" t="s">
         <v>14</v>
@@ -8975,10 +8975,10 @@
     </row>
     <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>13</v>
@@ -8987,10 +8987,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G24" s="69" t="s">
         <v>14</v>
@@ -9006,10 +9006,10 @@
     </row>
     <row r="25" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="69" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C25" s="69" t="s">
         <v>13</v>
@@ -9018,10 +9018,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G25" s="69" t="s">
         <v>14</v>
@@ -9036,10 +9036,10 @@
     </row>
     <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C26" s="69" t="s">
         <v>13</v>
@@ -9048,10 +9048,10 @@
         <v>16</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G26" s="69" t="s">
         <v>14</v>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="27" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>8</v>
@@ -9079,10 +9079,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G27" s="69" t="s">
         <v>14</v>
@@ -9097,22 +9097,22 @@
     </row>
     <row r="28" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C28" s="69" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G28" s="69" t="s">
         <v>14</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="69" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C29" s="69" t="s">
         <v>8</v>
@@ -9139,10 +9139,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G29" s="69" t="s">
         <v>14</v>
@@ -9157,10 +9157,10 @@
     </row>
     <row r="30" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="69" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C30" s="69" t="s">
         <v>8</v>
@@ -9169,10 +9169,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G30" s="69" t="s">
         <v>14</v>
@@ -9187,22 +9187,22 @@
     </row>
     <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="69" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C31" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G31" s="69" t="s">
         <v>14</v>
@@ -9217,22 +9217,22 @@
     </row>
     <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C32" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>14</v>
@@ -9247,22 +9247,22 @@
     </row>
     <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="69" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C33" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G33" s="69" t="s">
         <v>14</v>
@@ -9277,22 +9277,22 @@
     </row>
     <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="69" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C34" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G34" s="69" t="s">
         <v>14</v>
@@ -9307,10 +9307,10 @@
     </row>
     <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="69" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B35" s="69" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C35" s="69" t="s">
         <v>8</v>
@@ -9319,10 +9319,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G35" s="69" t="s">
         <v>14</v>
@@ -9337,10 +9337,10 @@
     </row>
     <row r="36" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="69" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C36" s="69" t="s">
         <v>8</v>
@@ -9349,10 +9349,10 @@
         <v>16</v>
       </c>
       <c r="E36" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G36" s="69" t="s">
         <v>14</v>
@@ -9367,10 +9367,10 @@
     </row>
     <row r="37" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="69" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B37" s="69" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C37" s="69" t="s">
         <v>8</v>
@@ -9379,10 +9379,10 @@
         <v>16</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G37" s="69" t="s">
         <v>14</v>
@@ -9397,10 +9397,10 @@
     </row>
     <row r="38" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C38" s="69" t="s">
         <v>8</v>
@@ -9409,10 +9409,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G38" s="69" t="s">
         <v>14</v>
@@ -9427,10 +9427,10 @@
     </row>
     <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="69" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C39" s="69" t="s">
         <v>8</v>
@@ -9439,10 +9439,10 @@
         <v>16</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G39" s="69" t="s">
         <v>14</v>
@@ -9457,22 +9457,22 @@
     </row>
     <row r="40" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C40" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G40" s="69" t="s">
         <v>14</v>
@@ -9487,22 +9487,22 @@
     </row>
     <row r="41" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C41" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G41" s="69" t="s">
         <v>14</v>
@@ -9517,10 +9517,10 @@
     </row>
     <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B42" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C42" s="70" t="s">
         <v>8</v>
@@ -9529,10 +9529,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G42" s="70" t="s">
         <v>14</v>
@@ -9547,10 +9547,10 @@
     </row>
     <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B43" s="70" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C43" s="70" t="s">
         <v>13</v>
@@ -9559,10 +9559,10 @@
         <v>16</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G43" s="70" t="s">
         <v>14</v>
@@ -9578,10 +9578,10 @@
     </row>
     <row r="44" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="70" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B44" s="70" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C44" s="70" t="s">
         <v>13</v>
@@ -9590,10 +9590,10 @@
         <v>9</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G44" s="70" t="s">
         <v>14</v>
@@ -9608,10 +9608,10 @@
     </row>
     <row r="45" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="70" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B45" s="70" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C45" s="70" t="s">
         <v>13</v>
@@ -9620,10 +9620,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G45" s="70" t="s">
         <v>14</v>
@@ -9639,10 +9639,10 @@
     </row>
     <row r="46" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="70" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B46" s="70" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C46" s="70" t="s">
         <v>8</v>
@@ -9651,10 +9651,10 @@
         <v>16</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G46" s="70" t="s">
         <v>14</v>
@@ -9669,22 +9669,22 @@
     </row>
     <row r="47" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="70" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C47" s="70" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G47" s="70" t="s">
         <v>14</v>
@@ -9699,10 +9699,10 @@
     </row>
     <row r="48" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B48" s="70" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C48" s="70" t="s">
         <v>8</v>
@@ -9711,10 +9711,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G48" s="70" t="s">
         <v>14</v>
@@ -9729,10 +9729,10 @@
     </row>
     <row r="49" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="70" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B49" s="70" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C49" s="70" t="s">
         <v>8</v>
@@ -9741,10 +9741,10 @@
         <v>12</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G49" s="70" t="s">
         <v>14</v>
@@ -9759,22 +9759,22 @@
     </row>
     <row r="50" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="70" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B50" s="70" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C50" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G50" s="70" t="s">
         <v>14</v>
@@ -9789,22 +9789,22 @@
     </row>
     <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="70" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B51" s="70" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C51" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G51" s="70" t="s">
         <v>14</v>
@@ -9819,22 +9819,22 @@
     </row>
     <row r="52" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="70" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B52" s="70" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C52" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G52" s="70" t="s">
         <v>14</v>
@@ -9849,22 +9849,22 @@
     </row>
     <row r="53" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="70" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B53" s="70" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C53" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G53" s="70" t="s">
         <v>14</v>
@@ -9879,10 +9879,10 @@
     </row>
     <row r="54" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="70" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C54" s="70" t="s">
         <v>8</v>
@@ -9891,10 +9891,10 @@
         <v>14</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G54" s="70" t="s">
         <v>14</v>
@@ -9909,10 +9909,10 @@
     </row>
     <row r="55" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="70" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B55" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C55" s="70" t="s">
         <v>8</v>
@@ -9921,10 +9921,10 @@
         <v>16</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G55" s="70" t="s">
         <v>14</v>
@@ -9939,10 +9939,10 @@
     </row>
     <row r="56" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="70" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C56" s="70" t="s">
         <v>8</v>
@@ -9951,10 +9951,10 @@
         <v>16</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F56" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G56" s="70" t="s">
         <v>14</v>
@@ -9969,10 +9969,10 @@
     </row>
     <row r="57" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="70" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C57" s="70" t="s">
         <v>8</v>
@@ -9981,10 +9981,10 @@
         <v>15</v>
       </c>
       <c r="E57" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G57" s="70" t="s">
         <v>14</v>
@@ -9999,10 +9999,10 @@
     </row>
     <row r="58" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="70" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C58" s="70" t="s">
         <v>8</v>
@@ -10011,10 +10011,10 @@
         <v>16</v>
       </c>
       <c r="E58" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F58" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G58" s="70" t="s">
         <v>14</v>
@@ -10029,22 +10029,22 @@
     </row>
     <row r="59" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="70" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C59" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E59" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G59" s="70" t="s">
         <v>14</v>
@@ -10059,22 +10059,22 @@
     </row>
     <row r="60" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="70" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B60" s="70" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C60" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E60" s="70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F60" s="70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G60" s="70" t="s">
         <v>14</v>
@@ -10089,10 +10089,10 @@
     </row>
     <row r="61" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C61" s="71" t="s">
         <v>8</v>
@@ -10101,10 +10101,10 @@
         <v>14</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F61" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G61" s="71" t="s">
         <v>14</v>
@@ -10119,10 +10119,10 @@
     </row>
     <row r="62" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="71" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B62" s="71" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C62" s="71" t="s">
         <v>13</v>
@@ -10131,10 +10131,10 @@
         <v>16</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G62" s="71" t="s">
         <v>14</v>
@@ -10149,10 +10149,10 @@
     </row>
     <row r="63" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="71" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C63" s="71" t="s">
         <v>8</v>
@@ -10161,10 +10161,10 @@
         <v>16</v>
       </c>
       <c r="E63" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F63" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G63" s="71" t="s">
         <v>14</v>
@@ -10179,10 +10179,10 @@
     </row>
     <row r="64" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="71" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C64" s="71" t="s">
         <v>8</v>
@@ -10191,10 +10191,10 @@
         <v>15</v>
       </c>
       <c r="E64" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F64" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G64" s="71" t="s">
         <v>14</v>
@@ -10209,10 +10209,10 @@
     </row>
     <row r="65" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="71" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C65" s="71" t="s">
         <v>8</v>
@@ -10221,10 +10221,10 @@
         <v>15</v>
       </c>
       <c r="E65" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F65" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G65" s="71" t="s">
         <v>14</v>
@@ -10239,22 +10239,22 @@
     </row>
     <row r="66" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="71" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C66" s="71" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="71" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E66" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F66" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G66" s="71" t="s">
         <v>14</v>
@@ -10269,22 +10269,22 @@
     </row>
     <row r="67" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="71" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C67" s="71" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="71" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E67" s="71" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F67" s="71" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G67" s="71" t="s">
         <v>14</v>
@@ -10299,10 +10299,10 @@
     </row>
     <row r="68" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C68" s="72" t="s">
         <v>8</v>
@@ -10311,10 +10311,10 @@
         <v>14</v>
       </c>
       <c r="E68" s="72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F68" s="72" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>14</v>
@@ -10329,10 +10329,10 @@
     </row>
     <row r="69" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="72" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B69" s="72" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C69" s="72" t="s">
         <v>13</v>
@@ -10341,10 +10341,10 @@
         <v>16</v>
       </c>
       <c r="E69" s="72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F69" s="72" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>14</v>
@@ -10359,10 +10359,10 @@
     </row>
     <row r="70" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="72" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C70" s="72" t="s">
         <v>8</v>
@@ -10371,10 +10371,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F70" s="72" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>14</v>
@@ -10389,22 +10389,22 @@
     </row>
     <row r="71" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="72" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C71" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="72" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E71" s="72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F71" s="72" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>14</v>
@@ -10419,22 +10419,22 @@
     </row>
     <row r="72" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="72" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C72" s="72" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="72" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E72" s="72" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F72" s="72" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G72" s="72" t="s">
         <v>14</v>
@@ -10477,19 +10477,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -10535,13 +10535,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -10847,7 +10847,7 @@
         <v>203</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>0</v>
@@ -10879,19 +10879,19 @@
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="73" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F2" s="73" t="s">
         <v>8</v>
@@ -10900,10 +10900,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I2" s="73" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J2" s="73" t="s">
         <v>16</v>
